--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Fn1-Itgb6.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Fn1-Itgb6.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,55 +531,55 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>55.5590947699235</v>
+        <v>61.84465033333333</v>
       </c>
       <c r="H2">
-        <v>55.5590947699235</v>
+        <v>185.533951</v>
       </c>
       <c r="I2">
-        <v>0.03058708006445994</v>
+        <v>0.03153184209101587</v>
       </c>
       <c r="J2">
-        <v>0.03058708006445994</v>
+        <v>0.03153184209101587</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>4.034276873933</v>
+        <v>0.5156803333333334</v>
       </c>
       <c r="N2">
-        <v>4.034276873933</v>
+        <v>1.547041</v>
       </c>
       <c r="O2">
-        <v>0.5385277640683874</v>
+        <v>0.05562891841766065</v>
       </c>
       <c r="P2">
-        <v>0.5385277640683874</v>
+        <v>0.05562891841766063</v>
       </c>
       <c r="Q2">
-        <v>224.1407711669543</v>
+        <v>31.89206989877678</v>
       </c>
       <c r="R2">
-        <v>224.1407711669543</v>
+        <v>287.028629088991</v>
       </c>
       <c r="S2">
-        <v>0.01647199183649436</v>
+        <v>0.00175408227123968</v>
       </c>
       <c r="T2">
-        <v>0.01647199183649436</v>
+        <v>0.001754082271239679</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,55 +593,55 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>55.5590947699235</v>
+        <v>61.84465033333333</v>
       </c>
       <c r="H3">
-        <v>55.5590947699235</v>
+        <v>185.533951</v>
       </c>
       <c r="I3">
-        <v>0.03058708006445994</v>
+        <v>0.03153184209101587</v>
       </c>
       <c r="J3">
-        <v>0.03058708006445994</v>
+        <v>0.03153184209101587</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.0513603067756302</v>
+        <v>4.444398333333333</v>
       </c>
       <c r="N3">
-        <v>0.0513603067756302</v>
+        <v>13.333195</v>
       </c>
       <c r="O3">
-        <v>0.00685598733901027</v>
+        <v>0.4794386295526497</v>
       </c>
       <c r="P3">
-        <v>0.00685598733901027</v>
+        <v>0.4794386295526496</v>
       </c>
       <c r="Q3">
-        <v>2.853532151559582</v>
+        <v>274.8622608670494</v>
       </c>
       <c r="R3">
-        <v>2.853532151559582</v>
+        <v>2473.760347803445</v>
       </c>
       <c r="S3">
-        <v>0.0002097046336592308</v>
+        <v>0.01511758315938721</v>
       </c>
       <c r="T3">
-        <v>0.0002097046336592308</v>
+        <v>0.0151175831593872</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,60 +655,60 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>55.5590947699235</v>
+        <v>61.84465033333333</v>
       </c>
       <c r="H4">
-        <v>55.5590947699235</v>
+        <v>185.533951</v>
       </c>
       <c r="I4">
-        <v>0.03058708006445994</v>
+        <v>0.03153184209101587</v>
       </c>
       <c r="J4">
-        <v>0.03058708006445994</v>
+        <v>0.03153184209101587</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>3.40566994049801</v>
+        <v>0.03264066666666667</v>
       </c>
       <c r="N4">
-        <v>3.40566994049801</v>
+        <v>0.097922</v>
       </c>
       <c r="O4">
-        <v>0.4546162485926024</v>
+        <v>0.003521105742701173</v>
       </c>
       <c r="P4">
-        <v>0.4546162485926024</v>
+        <v>0.003521105742701172</v>
       </c>
       <c r="Q4">
-        <v>189.2159389792087</v>
+        <v>2.018650616646889</v>
       </c>
       <c r="R4">
-        <v>189.2159389792087</v>
+        <v>18.167855549822</v>
       </c>
       <c r="S4">
-        <v>0.01390538359430635</v>
+        <v>0.0001110269502646225</v>
       </c>
       <c r="T4">
-        <v>0.01390538359430635</v>
+        <v>0.0001110269502646225</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,60 +717,60 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1361.3754564882</v>
+        <v>61.84465033333333</v>
       </c>
       <c r="H5">
-        <v>1361.3754564882</v>
+        <v>185.533951</v>
       </c>
       <c r="I5">
-        <v>0.7494812551902312</v>
+        <v>0.03153184209101587</v>
       </c>
       <c r="J5">
-        <v>0.7494812551902312</v>
+        <v>0.03153184209101587</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.034276873933</v>
+        <v>0.05817833333333333</v>
       </c>
       <c r="N5">
-        <v>4.034276873933</v>
+        <v>0.174535</v>
       </c>
       <c r="O5">
-        <v>0.5385277640683874</v>
+        <v>0.006275976703931182</v>
       </c>
       <c r="P5">
-        <v>0.5385277640683874</v>
+        <v>0.006275976703931181</v>
       </c>
       <c r="Q5">
-        <v>5492.165520850326</v>
+        <v>3.598018681976111</v>
       </c>
       <c r="R5">
-        <v>5492.165520850326</v>
+        <v>32.382168137785</v>
       </c>
       <c r="S5">
-        <v>0.4036164645687637</v>
+        <v>0.0001978931063952523</v>
       </c>
       <c r="T5">
-        <v>0.4036164645687637</v>
+        <v>0.0001978931063952522</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,55 +779,55 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1361.3754564882</v>
+        <v>61.84465033333333</v>
       </c>
       <c r="H6">
-        <v>1361.3754564882</v>
+        <v>185.533951</v>
       </c>
       <c r="I6">
-        <v>0.7494812551902312</v>
+        <v>0.03153184209101587</v>
       </c>
       <c r="J6">
-        <v>0.7494812551902312</v>
+        <v>0.03153184209101587</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.0513603067756302</v>
+        <v>4.219107</v>
       </c>
       <c r="N6">
-        <v>0.0513603067756302</v>
+        <v>12.657321</v>
       </c>
       <c r="O6">
-        <v>0.00685598733901027</v>
+        <v>0.4551353695830575</v>
       </c>
       <c r="P6">
-        <v>0.00685598733901027</v>
+        <v>0.4551353695830573</v>
       </c>
       <c r="Q6">
-        <v>69.92066108204754</v>
+        <v>260.929197133919</v>
       </c>
       <c r="R6">
-        <v>69.92066108204754</v>
+        <v>2348.362774205271</v>
       </c>
       <c r="S6">
-        <v>0.005138433996409751</v>
+        <v>0.01435125660372912</v>
       </c>
       <c r="T6">
-        <v>0.005138433996409751</v>
+        <v>0.01435125660372911</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,60 +841,60 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1361.3754564882</v>
+        <v>1361.379069</v>
       </c>
       <c r="H7">
-        <v>1361.3754564882</v>
+        <v>4084.137207</v>
       </c>
       <c r="I7">
-        <v>0.7494812551902312</v>
+        <v>0.6941067594101231</v>
       </c>
       <c r="J7">
-        <v>0.7494812551902312</v>
+        <v>0.6941067594101232</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>3.40566994049801</v>
+        <v>0.5156803333333334</v>
       </c>
       <c r="N7">
-        <v>3.40566994049801</v>
+        <v>1.547041</v>
       </c>
       <c r="O7">
-        <v>0.4546162485926024</v>
+        <v>0.05562891841766065</v>
       </c>
       <c r="P7">
-        <v>0.4546162485926024</v>
+        <v>0.05562891841766063</v>
       </c>
       <c r="Q7">
-        <v>4636.39546989362</v>
+        <v>702.036412094943</v>
       </c>
       <c r="R7">
-        <v>4636.39546989362</v>
+        <v>6318.327708854487</v>
       </c>
       <c r="S7">
-        <v>0.3407263566250578</v>
+        <v>0.03861240829237254</v>
       </c>
       <c r="T7">
-        <v>0.3407263566250578</v>
+        <v>0.03861240829237254</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -906,119 +906,119 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>241.126779126896</v>
+        <v>1361.379069</v>
       </c>
       <c r="H8">
-        <v>241.126779126896</v>
+        <v>4084.137207</v>
       </c>
       <c r="I8">
-        <v>0.1327480969476183</v>
+        <v>0.6941067594101231</v>
       </c>
       <c r="J8">
-        <v>0.1327480969476183</v>
+        <v>0.6941067594101232</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.034276873933</v>
+        <v>4.444398333333333</v>
       </c>
       <c r="N8">
-        <v>4.034276873933</v>
+        <v>13.333195</v>
       </c>
       <c r="O8">
-        <v>0.5385277640683874</v>
+        <v>0.4794386295526497</v>
       </c>
       <c r="P8">
-        <v>0.5385277640683874</v>
+        <v>0.4794386295526496</v>
       </c>
       <c r="Q8">
-        <v>972.7721887175869</v>
+        <v>6050.510865298484</v>
       </c>
       <c r="R8">
-        <v>972.7721887175869</v>
+        <v>54454.59778768636</v>
       </c>
       <c r="S8">
-        <v>0.0714885358335344</v>
+        <v>0.3327815934948201</v>
       </c>
       <c r="T8">
-        <v>0.0714885358335344</v>
+        <v>0.3327815934948202</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>23</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>241.126779126896</v>
+        <v>1361.379069</v>
       </c>
       <c r="H9">
-        <v>241.126779126896</v>
+        <v>4084.137207</v>
       </c>
       <c r="I9">
-        <v>0.1327480969476183</v>
+        <v>0.6941067594101231</v>
       </c>
       <c r="J9">
-        <v>0.1327480969476183</v>
+        <v>0.6941067594101232</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.0513603067756302</v>
+        <v>0.03264066666666667</v>
       </c>
       <c r="N9">
-        <v>0.0513603067756302</v>
+        <v>0.097922</v>
       </c>
       <c r="O9">
-        <v>0.00685598733901027</v>
+        <v>0.003521105742701173</v>
       </c>
       <c r="P9">
-        <v>0.00685598733901027</v>
+        <v>0.003521105742701172</v>
       </c>
       <c r="Q9">
-        <v>12.384345347777</v>
+        <v>44.43632039820599</v>
       </c>
       <c r="R9">
-        <v>12.384345347777</v>
+        <v>399.926883583854</v>
       </c>
       <c r="S9">
-        <v>0.0009101192719505788</v>
+        <v>0.002444023296606686</v>
       </c>
       <c r="T9">
-        <v>0.0009101192719505788</v>
+        <v>0.002444023296606685</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,60 +1027,60 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>241.126779126896</v>
+        <v>1361.379069</v>
       </c>
       <c r="H10">
-        <v>241.126779126896</v>
+        <v>4084.137207</v>
       </c>
       <c r="I10">
-        <v>0.1327480969476183</v>
+        <v>0.6941067594101231</v>
       </c>
       <c r="J10">
-        <v>0.1327480969476183</v>
+        <v>0.6941067594101232</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.40566994049801</v>
+        <v>0.05817833333333333</v>
       </c>
       <c r="N10">
-        <v>3.40566994049801</v>
+        <v>0.174535</v>
       </c>
       <c r="O10">
-        <v>0.4546162485926024</v>
+        <v>0.006275976703931182</v>
       </c>
       <c r="P10">
-        <v>0.4546162485926024</v>
+        <v>0.006275976703931181</v>
       </c>
       <c r="Q10">
-        <v>821.1982235215727</v>
+        <v>79.20276526930499</v>
       </c>
       <c r="R10">
-        <v>821.1982235215727</v>
+        <v>712.8248874237449</v>
       </c>
       <c r="S10">
-        <v>0.0603494418421333</v>
+        <v>0.004356197852099098</v>
       </c>
       <c r="T10">
-        <v>0.0603494418421333</v>
+        <v>0.004356197852099098</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,60 +1089,60 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>133.49876153682</v>
+        <v>1361.379069</v>
       </c>
       <c r="H11">
-        <v>133.49876153682</v>
+        <v>4084.137207</v>
       </c>
       <c r="I11">
-        <v>0.07349538945050349</v>
+        <v>0.6941067594101231</v>
       </c>
       <c r="J11">
-        <v>0.07349538945050349</v>
+        <v>0.6941067594101232</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>4.034276873933</v>
+        <v>4.219107</v>
       </c>
       <c r="N11">
-        <v>4.034276873933</v>
+        <v>12.657321</v>
       </c>
       <c r="O11">
-        <v>0.5385277640683874</v>
+        <v>0.4551353695830575</v>
       </c>
       <c r="P11">
-        <v>0.5385277640683874</v>
+        <v>0.4551353695830573</v>
       </c>
       <c r="Q11">
-        <v>538.5709663666893</v>
+        <v>5743.803959671382</v>
       </c>
       <c r="R11">
-        <v>538.5709663666893</v>
+        <v>51694.23563704245</v>
       </c>
       <c r="S11">
-        <v>0.03957930775011499</v>
+        <v>0.3159125364742247</v>
       </c>
       <c r="T11">
-        <v>0.03957930775011499</v>
+        <v>0.3159125364742247</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>25</v>
@@ -1151,60 +1151,60 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>133.49876153682</v>
+        <v>251.007014</v>
       </c>
       <c r="H12">
-        <v>133.49876153682</v>
+        <v>753.021042</v>
       </c>
       <c r="I12">
-        <v>0.07349538945050349</v>
+        <v>0.127977334927537</v>
       </c>
       <c r="J12">
-        <v>0.07349538945050349</v>
+        <v>0.1279773349275369</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.0513603067756302</v>
+        <v>0.5156803333333334</v>
       </c>
       <c r="N12">
-        <v>0.0513603067756302</v>
+        <v>1.547041</v>
       </c>
       <c r="O12">
-        <v>0.00685598733901027</v>
+        <v>0.05562891841766065</v>
       </c>
       <c r="P12">
-        <v>0.00685598733901027</v>
+        <v>0.05562891841766063</v>
       </c>
       <c r="Q12">
-        <v>6.856537346697777</v>
+        <v>129.4393806485247</v>
       </c>
       <c r="R12">
-        <v>6.856537346697777</v>
+        <v>1164.954425836722</v>
       </c>
       <c r="S12">
-        <v>0.0005038834595482809</v>
+        <v>0.007119240723993586</v>
       </c>
       <c r="T12">
-        <v>0.0005038834595482809</v>
+        <v>0.007119240723993582</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -1213,60 +1213,60 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>133.49876153682</v>
+        <v>251.007014</v>
       </c>
       <c r="H13">
-        <v>133.49876153682</v>
+        <v>753.021042</v>
       </c>
       <c r="I13">
-        <v>0.07349538945050349</v>
+        <v>0.127977334927537</v>
       </c>
       <c r="J13">
-        <v>0.07349538945050349</v>
+        <v>0.1279773349275369</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.40566994049801</v>
+        <v>4.444398333333333</v>
       </c>
       <c r="N13">
-        <v>3.40566994049801</v>
+        <v>13.333195</v>
       </c>
       <c r="O13">
-        <v>0.4546162485926024</v>
+        <v>0.4794386295526497</v>
       </c>
       <c r="P13">
-        <v>0.4546162485926024</v>
+        <v>0.4794386295526496</v>
       </c>
       <c r="Q13">
-        <v>454.6527192596599</v>
+        <v>1115.575154676577</v>
       </c>
       <c r="R13">
-        <v>454.6527192596599</v>
+        <v>10040.17639208919</v>
       </c>
       <c r="S13">
-        <v>0.03341219824084022</v>
+        <v>0.06135727807145876</v>
       </c>
       <c r="T13">
-        <v>0.03341219824084022</v>
+        <v>0.06135727807145874</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,60 +1275,60 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>24.8635304977225</v>
+        <v>251.007014</v>
       </c>
       <c r="H14">
-        <v>24.8635304977225</v>
+        <v>753.021042</v>
       </c>
       <c r="I14">
-        <v>0.01368817834718704</v>
+        <v>0.127977334927537</v>
       </c>
       <c r="J14">
-        <v>0.01368817834718704</v>
+        <v>0.1279773349275369</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>4.034276873933</v>
+        <v>0.03264066666666667</v>
       </c>
       <c r="N14">
-        <v>4.034276873933</v>
+        <v>0.097922</v>
       </c>
       <c r="O14">
-        <v>0.5385277640683874</v>
+        <v>0.003521105742701173</v>
       </c>
       <c r="P14">
-        <v>0.5385277640683874</v>
+        <v>0.003521105742701172</v>
       </c>
       <c r="Q14">
-        <v>100.3063660912897</v>
+        <v>8.193036274969334</v>
       </c>
       <c r="R14">
-        <v>100.3063660912897</v>
+        <v>73.737326474724</v>
       </c>
       <c r="S14">
-        <v>0.007371464079479952</v>
+        <v>0.0004506217289489418</v>
       </c>
       <c r="T14">
-        <v>0.007371464079479952</v>
+        <v>0.0004506217289489416</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1340,57 +1340,57 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>24.8635304977225</v>
+        <v>251.007014</v>
       </c>
       <c r="H15">
-        <v>24.8635304977225</v>
+        <v>753.021042</v>
       </c>
       <c r="I15">
-        <v>0.01368817834718704</v>
+        <v>0.127977334927537</v>
       </c>
       <c r="J15">
-        <v>0.01368817834718704</v>
+        <v>0.1279773349275369</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.0513603067756302</v>
+        <v>0.05817833333333333</v>
       </c>
       <c r="N15">
-        <v>0.0513603067756302</v>
+        <v>0.174535</v>
       </c>
       <c r="O15">
-        <v>0.00685598733901027</v>
+        <v>0.006275976703931182</v>
       </c>
       <c r="P15">
-        <v>0.00685598733901027</v>
+        <v>0.006275976703931181</v>
       </c>
       <c r="Q15">
-        <v>1.276998553888265</v>
+        <v>14.60316972949667</v>
       </c>
       <c r="R15">
-        <v>1.276998553888265</v>
+        <v>131.42852756547</v>
       </c>
       <c r="S15">
-        <v>9.384597744242888E-05</v>
+        <v>0.0008031827726364203</v>
       </c>
       <c r="T15">
-        <v>9.384597744242888E-05</v>
+        <v>0.0008031827726364201</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1402,52 +1402,672 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>24.8635304977225</v>
+        <v>251.007014</v>
       </c>
       <c r="H16">
-        <v>24.8635304977225</v>
+        <v>753.021042</v>
       </c>
       <c r="I16">
-        <v>0.01368817834718704</v>
+        <v>0.127977334927537</v>
       </c>
       <c r="J16">
-        <v>0.01368817834718704</v>
+        <v>0.1279773349275369</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>3.40566994049801</v>
+        <v>4.219107</v>
       </c>
       <c r="N16">
-        <v>3.40566994049801</v>
+        <v>12.657321</v>
       </c>
       <c r="O16">
-        <v>0.4546162485926024</v>
+        <v>0.4551353695830575</v>
       </c>
       <c r="P16">
-        <v>0.4546162485926024</v>
+        <v>0.4551353695830573</v>
       </c>
       <c r="Q16">
-        <v>84.67697843074905</v>
+        <v>1059.025449816498</v>
       </c>
       <c r="R16">
-        <v>84.67697843074905</v>
+        <v>9531.229048348481</v>
       </c>
       <c r="S16">
-        <v>0.006222868290264661</v>
+        <v>0.05824701163049927</v>
       </c>
       <c r="T16">
-        <v>0.006222868290264661</v>
+        <v>0.05824701163049924</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>260.0315303333334</v>
+      </c>
+      <c r="H17">
+        <v>780.094591</v>
+      </c>
+      <c r="I17">
+        <v>0.1325785352324417</v>
+      </c>
+      <c r="J17">
+        <v>0.1325785352324417</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M17">
+        <v>0.5156803333333334</v>
+      </c>
+      <c r="N17">
+        <v>1.547041</v>
+      </c>
+      <c r="O17">
+        <v>0.05562891841766065</v>
+      </c>
+      <c r="P17">
+        <v>0.05562891841766063</v>
+      </c>
+      <c r="Q17">
+        <v>134.0931462394701</v>
+      </c>
+      <c r="R17">
+        <v>1206.838316155231</v>
+      </c>
+      <c r="S17">
+        <v>0.007375200520378447</v>
+      </c>
+      <c r="T17">
+        <v>0.007375200520378444</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>260.0315303333334</v>
+      </c>
+      <c r="H18">
+        <v>780.094591</v>
+      </c>
+      <c r="I18">
+        <v>0.1325785352324417</v>
+      </c>
+      <c r="J18">
+        <v>0.1325785352324417</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>4.444398333333333</v>
+      </c>
+      <c r="N18">
+        <v>13.333195</v>
+      </c>
+      <c r="O18">
+        <v>0.4794386295526497</v>
+      </c>
+      <c r="P18">
+        <v>0.4794386295526496</v>
+      </c>
+      <c r="Q18">
+        <v>1155.683700027583</v>
+      </c>
+      <c r="R18">
+        <v>10401.15330024824</v>
+      </c>
+      <c r="S18">
+        <v>0.06356327123993953</v>
+      </c>
+      <c r="T18">
+        <v>0.06356327123993952</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>260.0315303333334</v>
+      </c>
+      <c r="H19">
+        <v>780.094591</v>
+      </c>
+      <c r="I19">
+        <v>0.1325785352324417</v>
+      </c>
+      <c r="J19">
+        <v>0.1325785352324417</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M19">
+        <v>0.03264066666666667</v>
+      </c>
+      <c r="N19">
+        <v>0.097922</v>
+      </c>
+      <c r="O19">
+        <v>0.003521105742701173</v>
+      </c>
+      <c r="P19">
+        <v>0.003521105742701172</v>
+      </c>
+      <c r="Q19">
+        <v>8.487602504433557</v>
+      </c>
+      <c r="R19">
+        <v>76.388422539902</v>
+      </c>
+      <c r="S19">
+        <v>0.0004668230417658602</v>
+      </c>
+      <c r="T19">
+        <v>0.0004668230417658601</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>260.0315303333334</v>
+      </c>
+      <c r="H20">
+        <v>780.094591</v>
+      </c>
+      <c r="I20">
+        <v>0.1325785352324417</v>
+      </c>
+      <c r="J20">
+        <v>0.1325785352324417</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>0.05817833333333333</v>
+      </c>
+      <c r="N20">
+        <v>0.174535</v>
+      </c>
+      <c r="O20">
+        <v>0.006275976703931182</v>
+      </c>
+      <c r="P20">
+        <v>0.006275976703931181</v>
+      </c>
+      <c r="Q20">
+        <v>15.12820104890945</v>
+      </c>
+      <c r="R20">
+        <v>136.153809440185</v>
+      </c>
+      <c r="S20">
+        <v>0.0008320597985601235</v>
+      </c>
+      <c r="T20">
+        <v>0.0008320597985601234</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>260.0315303333334</v>
+      </c>
+      <c r="H21">
+        <v>780.094591</v>
+      </c>
+      <c r="I21">
+        <v>0.1325785352324417</v>
+      </c>
+      <c r="J21">
+        <v>0.1325785352324417</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>4.219107</v>
+      </c>
+      <c r="N21">
+        <v>12.657321</v>
+      </c>
+      <c r="O21">
+        <v>0.4551353695830575</v>
+      </c>
+      <c r="P21">
+        <v>0.4551353695830573</v>
+      </c>
+      <c r="Q21">
+        <v>1097.100849850079</v>
+      </c>
+      <c r="R21">
+        <v>9873.907648650711</v>
+      </c>
+      <c r="S21">
+        <v>0.06034118063179776</v>
+      </c>
+      <c r="T21">
+        <v>0.06034118063179774</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>27.07732933333333</v>
+      </c>
+      <c r="H22">
+        <v>81.231988</v>
+      </c>
+      <c r="I22">
+        <v>0.01380552833888228</v>
+      </c>
+      <c r="J22">
+        <v>0.01380552833888228</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M22">
+        <v>0.5156803333333334</v>
+      </c>
+      <c r="N22">
+        <v>1.547041</v>
+      </c>
+      <c r="O22">
+        <v>0.05562891841766065</v>
+      </c>
+      <c r="P22">
+        <v>0.05562891841766063</v>
+      </c>
+      <c r="Q22">
+        <v>13.96324621638978</v>
+      </c>
+      <c r="R22">
+        <v>125.669215947508</v>
+      </c>
+      <c r="S22">
+        <v>0.0007679866096763845</v>
+      </c>
+      <c r="T22">
+        <v>0.0007679866096763842</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>27.07732933333333</v>
+      </c>
+      <c r="H23">
+        <v>81.231988</v>
+      </c>
+      <c r="I23">
+        <v>0.01380552833888228</v>
+      </c>
+      <c r="J23">
+        <v>0.01380552833888228</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>4.444398333333333</v>
+      </c>
+      <c r="N23">
+        <v>13.333195</v>
+      </c>
+      <c r="O23">
+        <v>0.4794386295526497</v>
+      </c>
+      <c r="P23">
+        <v>0.4794386295526496</v>
+      </c>
+      <c r="Q23">
+        <v>120.3424373601844</v>
+      </c>
+      <c r="R23">
+        <v>1083.08193624166</v>
+      </c>
+      <c r="S23">
+        <v>0.006618903587043988</v>
+      </c>
+      <c r="T23">
+        <v>0.006618903587043987</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>27.07732933333333</v>
+      </c>
+      <c r="H24">
+        <v>81.231988</v>
+      </c>
+      <c r="I24">
+        <v>0.01380552833888228</v>
+      </c>
+      <c r="J24">
+        <v>0.01380552833888228</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M24">
+        <v>0.03264066666666667</v>
+      </c>
+      <c r="N24">
+        <v>0.097922</v>
+      </c>
+      <c r="O24">
+        <v>0.003521105742701173</v>
+      </c>
+      <c r="P24">
+        <v>0.003521105742701172</v>
+      </c>
+      <c r="Q24">
+        <v>0.8838220809928889</v>
+      </c>
+      <c r="R24">
+        <v>7.954398728936</v>
+      </c>
+      <c r="S24">
+        <v>4.861072511506218E-05</v>
+      </c>
+      <c r="T24">
+        <v>4.861072511506216E-05</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>27.07732933333333</v>
+      </c>
+      <c r="H25">
+        <v>81.231988</v>
+      </c>
+      <c r="I25">
+        <v>0.01380552833888228</v>
+      </c>
+      <c r="J25">
+        <v>0.01380552833888228</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.05817833333333333</v>
+      </c>
+      <c r="N25">
+        <v>0.174535</v>
+      </c>
+      <c r="O25">
+        <v>0.006275976703931182</v>
+      </c>
+      <c r="P25">
+        <v>0.006275976703931181</v>
+      </c>
+      <c r="Q25">
+        <v>1.575313891731111</v>
+      </c>
+      <c r="R25">
+        <v>14.17782502558</v>
+      </c>
+      <c r="S25">
+        <v>8.664317424028693E-05</v>
+      </c>
+      <c r="T25">
+        <v>8.664317424028692E-05</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>27.07732933333333</v>
+      </c>
+      <c r="H26">
+        <v>81.231988</v>
+      </c>
+      <c r="I26">
+        <v>0.01380552833888228</v>
+      </c>
+      <c r="J26">
+        <v>0.01380552833888228</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>4.219107</v>
+      </c>
+      <c r="N26">
+        <v>12.657321</v>
+      </c>
+      <c r="O26">
+        <v>0.4551353695830575</v>
+      </c>
+      <c r="P26">
+        <v>0.4551353695830573</v>
+      </c>
+      <c r="Q26">
+        <v>114.242149731572</v>
+      </c>
+      <c r="R26">
+        <v>1028.179347584148</v>
+      </c>
+      <c r="S26">
+        <v>0.00628338424280656</v>
+      </c>
+      <c r="T26">
+        <v>0.006283384242806557</v>
       </c>
     </row>
   </sheetData>
